--- a/NCM+NCACY25_0.5_2.xlsx_fitting_results.xlsx
+++ b/NCM+NCACY25_0.5_2.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01240319361679631</v>
+        <v>0.01303428695661012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004019142305611462</v>
+        <v>0.00411558842689071</v>
       </c>
       <c r="D2" t="n">
-        <v>5.408223972225111</v>
+        <v>5.308203877460083</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999314899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003833499065754748</v>
+        <v>0.003083830230966942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8806544672447537</v>
+        <v>0.6617675659170655</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7707198510706683</v>
+        <v>0.8798602550624607</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003749023845826334</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.378891347654973e-08</v>
+        <v>0.003750284876962048</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01264435794221946</v>
+        <v>0.01322483628024698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007993168717983525</v>
+        <v>0.00800721588948131</v>
       </c>
       <c r="D3" t="n">
-        <v>5.572107801357878</v>
+        <v>5.557618764741608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9864647690105817</v>
+        <v>0.9889150891355087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004367025461918699</v>
+        <v>0.003748664666361594</v>
       </c>
       <c r="G3" t="n">
-        <v>1.54882351183937</v>
+        <v>1.436081490359735</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6952072818467502</v>
+        <v>0.765903797164493</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004127574892122937</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.29781646175428e-08</v>
+        <v>0.004126784546539095</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01276553711416234</v>
+        <v>0.01343881400464181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01316861192043891</v>
+        <v>0.01322509862902611</v>
       </c>
       <c r="D4" t="n">
-        <v>5.676122510940768</v>
+        <v>5.653502440588889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9476421818408579</v>
+        <v>0.9478007855072383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004399868792898033</v>
+        <v>0.003643375422719547</v>
       </c>
       <c r="G4" t="n">
-        <v>1.752322996450594</v>
+        <v>1.578227630043694</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6684664740046806</v>
+        <v>0.7503796263820395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004384474407853617</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.466168418903246e-08</v>
+        <v>0.004380333764763648</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01284560066427994</v>
+        <v>0.01359656420393452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0191739385574505</v>
+        <v>0.01923684909848889</v>
       </c>
       <c r="D5" t="n">
-        <v>5.565970677065937</v>
+        <v>5.54899804799689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9408015534890178</v>
+        <v>0.940630245830525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004679984575124549</v>
+        <v>0.003836286841100398</v>
       </c>
       <c r="G5" t="n">
-        <v>1.986732819752254</v>
+        <v>1.816006174560678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6389375541367369</v>
+        <v>0.7218548353300673</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004773433273403615</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.603841205639528e-08</v>
+        <v>0.004765566917337222</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01276285883068819</v>
+        <v>0.01423087771841163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02828704220720242</v>
+        <v>0.02843900423136123</v>
       </c>
       <c r="D6" t="n">
-        <v>5.503852763191272</v>
+        <v>5.477305765988437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9314979509136799</v>
+        <v>0.9302738624999151</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005333678261952776</v>
+        <v>0.003657949163221946</v>
       </c>
       <c r="G6" t="n">
-        <v>2.322401845995876</v>
+        <v>1.986231042258266</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5840190752200763</v>
+        <v>0.729302055488676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005287845236827947</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.616000732190822e-07</v>
+        <v>0.005262490513371898</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0128545215083349</v>
+        <v>0.0144733529810053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03724405584054125</v>
+        <v>0.03748530167894865</v>
       </c>
       <c r="D7" t="n">
-        <v>5.552600402643659</v>
+        <v>5.519433830334231</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9241690882172475</v>
+        <v>0.9218849147335495</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005535459420865345</v>
+        <v>0.003607459410082673</v>
       </c>
       <c r="G7" t="n">
-        <v>2.402698214607716</v>
+        <v>1.746479835616892</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5704373685505657</v>
+        <v>0.7439908696971327</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005909919428700004</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.582879245954908e-07</v>
+        <v>0.005864472749513281</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01340421040620532</v>
+        <v>0.01498788355022561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05047840330398604</v>
+        <v>0.05072714703260173</v>
       </c>
       <c r="D8" t="n">
-        <v>5.506585106590645</v>
+        <v>5.479781165389219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9061106222210048</v>
+        <v>0.9037077575534277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004880889182293199</v>
+        <v>0.00303240740487055</v>
       </c>
       <c r="G8" t="n">
-        <v>1.215456204047879</v>
+        <v>0.6891472899293876</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6604333595609682</v>
+        <v>0.877379325433656</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006081040126154709</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.612944468014412e-07</v>
+        <v>0.006055374071632246</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.013639969585765</v>
+        <v>0.01500832531310035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06050311121398667</v>
+        <v>0.06064841835183933</v>
       </c>
       <c r="D9" t="n">
-        <v>5.579593169910487</v>
+        <v>5.564578903415597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9058722394140707</v>
+        <v>0.9048576110652174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005069181619980296</v>
+        <v>0.003531905436869896</v>
       </c>
       <c r="G9" t="n">
-        <v>1.532109289411851</v>
+        <v>1.271120393435574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6424615680509502</v>
+        <v>0.7844644769317373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006480951123648035</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.659187137786244e-07</v>
+        <v>0.006456650502730997</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00696579903624783</v>
+        <v>0.006502028208097072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07387690877437417</v>
+        <v>0.07385685323831032</v>
       </c>
       <c r="D10" t="n">
-        <v>5.760544873619185</v>
+        <v>5.748881231844635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9190243296230401</v>
+        <v>0.9187276051839561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01630699225205461</v>
+        <v>0.01677551671520667</v>
       </c>
       <c r="G10" t="n">
-        <v>9.999999999999998</v>
+        <v>9.999999999995003</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1935204884579498</v>
+        <v>0.182799581686491</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01008026217212712</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.780896443141148e-07</v>
+        <v>0.01029078900329402</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01402911808339324</v>
+        <v>0.01517190618637649</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09147281257989488</v>
+        <v>0.09140993565814043</v>
       </c>
       <c r="D11" t="n">
-        <v>5.560366479994707</v>
+        <v>5.565169644012609</v>
       </c>
       <c r="E11" t="n">
-        <v>0.913393043160145</v>
+        <v>0.9139565408597969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005921360554164781</v>
+        <v>0.004858349167171069</v>
       </c>
       <c r="G11" t="n">
-        <v>1.905823278094809</v>
+        <v>2.56014509351552</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6032806314080134</v>
+        <v>0.6469214179750629</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00751205641565533</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.679920094277742e-07</v>
+        <v>0.007521216430238808</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01447007482736146</v>
+        <v>0.01551876507806236</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1048411252356765</v>
+        <v>0.1048126553049226</v>
       </c>
       <c r="D12" t="n">
-        <v>5.680932662275449</v>
+        <v>5.682669242667011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9091510180326117</v>
+        <v>0.9094349548757932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005624590597147953</v>
+        <v>0.00460844551720505</v>
       </c>
       <c r="G12" t="n">
-        <v>1.428722620221926</v>
+        <v>1.770970746913051</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6529980013895706</v>
+        <v>0.7002022475319656</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008074273221406541</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.512418432355441e-07</v>
+        <v>0.008075125586209205</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.426175658041457e-38</v>
+        <v>0.01572535825977487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08647689542354951</v>
+        <v>0.1217734332446923</v>
       </c>
       <c r="D13" t="n">
-        <v>6.852966565962554</v>
+        <v>5.64517822669778</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9071120944690658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02303190730282603</v>
+        <v>0.004864120019331435</v>
       </c>
       <c r="G13" t="n">
-        <v>9.999999999999998</v>
+        <v>1.761531745359583</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06083347614242107</v>
+        <v>0.6933097885715377</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06156615016081381</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.467726713394786e-07</v>
+        <v>0.008321803514295277</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.987534984506818e-33</v>
+        <v>0.01597381645693952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09605554848069482</v>
+        <v>0.1353156266093043</v>
       </c>
       <c r="D14" t="n">
-        <v>7.132713999084256</v>
+        <v>5.697649821530409</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9044829695980207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02399917453786843</v>
+        <v>0.004996698304001721</v>
       </c>
       <c r="G14" t="n">
-        <v>9.999999999999998</v>
+        <v>1.535485139845043</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06960082325793791</v>
+        <v>0.7160422592022253</v>
       </c>
       <c r="I14" t="n">
-        <v>0.067823312913279</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.63322661175137e-07</v>
+        <v>0.00828530928273423</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01044133527868804</v>
+        <v>0.01619838670117909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1453238904619706</v>
+        <v>0.1482894890642818</v>
       </c>
       <c r="D15" t="n">
-        <v>5.887620097882363</v>
+        <v>5.780754713831319</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9149805219949593</v>
+        <v>0.9066458860950437</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01373421662410959</v>
+        <v>0.00515136745020875</v>
       </c>
       <c r="G15" t="n">
-        <v>6.61359154806256</v>
+        <v>1.346499278221679</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2924617915143049</v>
+        <v>0.7259495658593079</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01100554378792385</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.694911457944842e-07</v>
+        <v>0.009100816367770111</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0136155259388459</v>
+        <v>0.01600814046072683</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1647811767362804</v>
+        <v>0.1649487900682907</v>
       </c>
       <c r="D16" t="n">
-        <v>5.783151464365187</v>
+        <v>5.777703161809683</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9150214208771305</v>
+        <v>0.9148176134887853</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009430160560802767</v>
+        <v>0.006871602114316591</v>
       </c>
       <c r="G16" t="n">
-        <v>3.001255582631978</v>
+        <v>3.254291181346015</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4696510630090053</v>
+        <v>0.5756662435046815</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009625699018514143</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.611852785845848e-07</v>
+        <v>0.009506322810548693</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01319508740212913</v>
+        <v>0.01645882200813683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1791922559145418</v>
+        <v>0.1799662307121598</v>
       </c>
       <c r="D17" t="n">
-        <v>5.84509031330887</v>
+        <v>5.815349580859097</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9099889485615397</v>
+        <v>0.9080735182238063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01040868599081717</v>
+        <v>0.006355993405153244</v>
       </c>
       <c r="G17" t="n">
-        <v>3.197708472192431</v>
+        <v>2.06407074297494</v>
       </c>
       <c r="H17" t="n">
-        <v>0.43591341654431</v>
+        <v>0.6401802635083528</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009820053023633818</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.61531240132428e-07</v>
+        <v>0.009458963377780065</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01351981061830676</v>
+        <v>0.01706237685805834</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20018964940074</v>
+        <v>0.2008528579742985</v>
       </c>
       <c r="D18" t="n">
-        <v>5.847235582890228</v>
+        <v>5.821271506478664</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9035051226127175</v>
+        <v>0.90172293886374</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009485374567654479</v>
+        <v>0.005351200743394338</v>
       </c>
       <c r="G18" t="n">
-        <v>1.611991394083042</v>
+        <v>0.8000952796028765</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5088760498404414</v>
+        <v>0.7757174256380089</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00861752837802718</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.731131275425366e-07</v>
+        <v>0.008470397876499301</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003589717273474915</v>
+        <v>0.007650648322630256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2018611298151825</v>
+        <v>0.1991722088194902</v>
       </c>
       <c r="D19" t="n">
-        <v>6.129669023877545</v>
+        <v>6.171189075804198</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9215259812152454</v>
+        <v>0.9237989549359014</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03038891843036716</v>
+        <v>0.02175720536571695</v>
       </c>
       <c r="G19" t="n">
-        <v>6.304269237288135</v>
+        <v>9.999951289115089</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1537907405020355</v>
+        <v>0.1792377033003377</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01647705815232141</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.867973173239671e-07</v>
+        <v>0.02046832717115009</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002781616034259075</v>
+        <v>0.009159616547128675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213171387866763</v>
+        <v>0.2118925771691325</v>
       </c>
       <c r="D20" t="n">
-        <v>6.17169497792034</v>
+        <v>6.190881721449483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9233155069788623</v>
+        <v>0.9240560399209254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02827268985284561</v>
+        <v>0.02064943980889089</v>
       </c>
       <c r="G20" t="n">
-        <v>6.890455908222668</v>
+        <v>9.99999992388541</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1651298362530133</v>
+        <v>0.1999766808803641</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01802067776052388</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.62702861828395e-07</v>
+        <v>0.02036858298727804</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01613253079959645</v>
+        <v>0.017630666442737</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2465539043045258</v>
+        <v>0.2467097764649478</v>
       </c>
       <c r="D21" t="n">
-        <v>5.877735450751958</v>
+        <v>5.872480926084157</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8982714621402839</v>
+        <v>0.897936998012559</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007949814288681153</v>
+        <v>0.006332433444092335</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8983492633775864</v>
+        <v>0.8422666435910929</v>
       </c>
       <c r="H21" t="n">
-        <v>0.64759916370229</v>
+        <v>0.7361987414946808</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008851511612645756</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.587181583254433e-07</v>
+        <v>0.008825254697621934</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01323544510819226</v>
+        <v>0.01763882635340891</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2550029567270909</v>
+        <v>0.2558055431245154</v>
       </c>
       <c r="D22" t="n">
-        <v>5.995044561285146</v>
+        <v>5.970002487399633</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9064810031335369</v>
+        <v>0.9049387673851474</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01234388057731334</v>
+        <v>0.00726994152918888</v>
       </c>
       <c r="G22" t="n">
-        <v>1.715025435929919</v>
+        <v>1.162907566202742</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4599530355451518</v>
+        <v>0.6739976746424746</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01037460217728671</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.877799959169359e-07</v>
+        <v>0.0101398734885839</v>
       </c>
     </row>
   </sheetData>
